--- a/TSLA/Financial Model - TSLA (12-11-2023).xlsx
+++ b/TSLA/Financial Model - TSLA (12-11-2023).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzz5\OneDrive\Desktop\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzz5\OneDrive\Desktop\FModels\TSLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51968125-908E-4DBD-86BC-23BA7DCF3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA04BB-05F0-457B-9638-C309E44C8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{202AD4CF-E04B-41A8-9590-EEF3C55E0872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{202AD4CF-E04B-41A8-9590-EEF3C55E0872}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>All $ are in USD</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>|- Ethan Cratchley</t>
   </si>
 </sst>
 </file>
@@ -803,12 +806,12 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -828,7 +831,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45238</v>
+        <v>45242</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="5" t="s">
@@ -883,6 +886,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
